--- a/meetup-1119/artifact/script/SearchProduct.xlsx
+++ b/meetup-1119/artifact/script/SearchProduct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/documentation/meetup-1119/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38E214-5ED8-5742-9C72-BA0565B79E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6DA54B-F45F-E446-8DE7-69CBBD41004D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="460" windowWidth="25600" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13660" yWindow="460" windowWidth="27300" windowHeight="25140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -3060,6 +3060,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3087,10 +3091,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5494,8 +5494,8 @@
   <dimension ref="A1:O315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5505,7 +5505,7 @@
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="41" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="7" width="23.1640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="8.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="45.1640625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -5516,12 +5516,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -5539,20 +5539,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -5562,10 +5562,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -7129,7 +7129,7 @@
       <c r="C61" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="63" t="s">
         <v>474</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -11536,12 +11536,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="E1" s="32" t="s">
         <v>11</v>
       </c>
@@ -11559,20 +11559,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>646</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -11582,10 +11582,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -13040,7 +13040,7 @@
       <c r="C57" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="63" t="s">
         <v>474</v>
       </c>
       <c r="E57" s="7" t="s">
